--- a/OnlineLessons/Lesson7Example.xlsx
+++ b/OnlineLessons/Lesson7Example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr74\Box Sync\Quantitative Reasoning Course Content\OnlineLessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/OnlineLessons/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_41CA42E1836D20A30A0375160AF98F7CA7B0C803" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8645B5-16D7-4072-957F-22491CFF731C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8895"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -183,16 +185,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -200,8 +199,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -483,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -501,41 +503,41 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -558,46 +560,46 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
